--- a/nodejs/feedBuilder/data.xlsx
+++ b/nodejs/feedBuilder/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="shop" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -242,6 +242,97 @@
   </si>
   <si>
     <t>Косметологический центр «Эра»</t>
+  </si>
+  <si>
+    <t>url(без ссылки!)</t>
+  </si>
+  <si>
+    <t>идентификатор клиники</t>
+  </si>
+  <si>
+    <t>ГОУ ВПО «ВГМУ им. Н.Н. Бурденко»;2005;Базовое образование;Лечебное дело||
+ГОУ ВПО «ВГМА им. Н.Н. Бурденко»;2006;Базовое образование;Неврология||
+ГБОУ ВПО «ВГМА им. Н.Н. Бурденко»;2006;Повышение квалификации;сертификат специалиста по неврологии||
+ГБОУ ВПО «ВГМА им. Н.Н. Бурденко»;2011;Повышение квалификации;сертификат специалиста по неврологии||
+ГБОУ ВПО «ВГМА им. Н.Н. Бурденко»;2011;Повышение квалификации;Актуальные вопросы неврологии||
+ ГБОУ ВПО «Российский национальный исследовательский медицинский университет им. Н.И. Пирогова»;2013;Повышение квалификации;Косметология||
+ГБОУ ВПО «ВГМА им. Н.Н. Бурденко»;2013;Повышение квалификации;Дерматовенерология||
+ГБОУ ВПО «ВГМА им. Н.Н. Бурденко»;2013;Повышение квалификации;сертификат специалиста по дерматовенерологии||
+ГБОУ ВПО РНИМУ им. Н.И. Пирогова;2013;Повышение квалификации;сертификат специалиста по косметологии||
+ГОУ ВПО «ВГМУ им. Н.Н. Бурденко»;2015;Повышение квалификации;сертификат специалиста по специальности «Терапия»||
+ГОУ ВПО «ВГМУ им. Н.Н. Бурденко»;2016;Повышение квалификации;Актуальные вопросы неврологии||
+ГОУ ВПО «ВГМУ им. Н.Н. Бурденко»;2018;Повышение квалификации;Организация здравоохранения и общественное здоровье||
+ГОУ ВПО «ВГМУ им. Н.Н. Бурденко»;2018;Повышение квалификации; Организация здравоохранения и общественное здоровье||
+ГОУ ВПО «ВГМУ им. Н.Н. Бурденко»;2018;Повышение квалификации;Актуальные вопросы дерматовенерологии||
+ГОУ ВПО «ВГМУ им. Н.Н. Бурденко»;2018;Повышение квалификации; Актуальные вопросы косметологии||
+ЧОУ ДПО «Региональная академия делового образования»;2020;Повышение квалификации;сертификат специалиста по специальности «Неврология»</t>
+  </si>
+  <si>
+    <t>ГОУ ВПО «ВГМА имени Н.Н. Бурденко»;2006;Базовое образование;Лечебное дело||
+ГОУ ВПО «ВГМА имени Н.Н. Бурденко»;2008;Повышение квалификации;Терапевтическая косметология||
+ГБОУ ВПО «Северо-Западный государственный медицинский университет им. И.И. Мечникова»;2013;Повышение квалификации;Косметология||
+ГБОУ ВПО «Северо-Западный государственный медицинский университет им. И.И. Мечникова»;2013; Повышение квалификации;Косметология||
+ЧУД ПО «Институт профессиональных технологий и сервиса ФиЗ»;2018;Повышение квалификации;Косметология||
+ООО ИПК ДПО «Специалист»;2023;Повышение квалификации;Косметология||
+ООО ИПК ДПО «Специалист»;2024;Повышение квалификации;Дерматовенерология</t>
+  </si>
+  <si>
+    <t>ВГМА им. Н.Н. Бурденко;2001;Базовое образование;Педиатрия||
+ВГМА им. Н.Н. Бурденко;2004;Повышение квалификации;Дерматовенералогия||
+РУДН;2013;Повышение квалификации;Косметология||
+ЧОУ ДПО «Региональная академия делового образования»;2020;Повышение квалификации;Дерматовенералогия||
+ООО «Институт повышения квалификации ДПО «Специалист»;2023;Повышение квалификации;Косметология||
+ФГБОУ ДПО "Российская медицинская академия непрерывного профессионального образования";2023;Повышение квалификации;Косметология</t>
+  </si>
+  <si>
+    <t>ГБОУ ВПО «Воронежская государственная медицинская академия имени Н.Н. Бурденко;2012;Базовое образование;Лечебное дело||
+ГБОУ ВПО «Воронежская государственная медицинская академия имени Н.Н. Бурденко;2014;ординатура;дерматовенеролог||
+ФГБОУ ВО «Северо-Западный государственный медицинский университет имени И.И. Мечникова»;2016;профессиональная переподготовка;Косметология||
+ИДПО ФГБОУ ВО ВГМУ им. Н.Н. Бурденко;2016;повышение квалификации;Индивидуальный подбор формы губ||
+ИДПО ФГБОУ ВО ВГМУ им. Н.Н. Бурденко;2017;повышение квалификации по программе «Процедуры косметологической коррекции изменений покровных тканей»;Косметология||
+ЧОУ ДПО «Межрегиональный институт непрерывного образования»;2017;повышение квалификации по программе «Консультативно-профилактическая работа по предупреждению и раннему выявлению патологии покровных тканей человеческого организма»;Дерматология||
+ООО «Центр врачебной косметологии и пластической хирургии»;2018;повышение квалификации по программе «Контурная пластика лица» (в рамках системы НМО);Косметология||
+ЧОУ ДПО «Межрегиональный институт непрерывного образования»;2018;повышение квалификации по программе «Косметологическая коррекция последствий хирургических вмешательств и травм»;Косметология||
+ИДПО ФГБОУ ВО ВГМУ им. Н.Н. Бурденко;2018;повышение квалификации по программе «Актуальные вопросы дерматовенералогии»;Дерматовенерология||
+ООО «Центр врачебной косметологии и пластической хирургии»;2019;повышение квалификации по программе «Контурная пластика лица» (в рамках системы НМО);Косметология||
+ООО «Центр врачебной косметологии и пластической хирургии»;2020;повышение квалификации по программе «Инъекционные методы в косметологии»;Косметология</t>
+  </si>
+  <si>
+    <t>ГБОУ ВПО «ВГМА имени Н.Н.Бурденко»;2005;Базовое образование;Лечебное дело||
+ГБОУ ВПО «ВГМА имени Н.Н.Бурденко»;2007;повышение квалификации;Дерматовенерология||
+ГБОУ ВПО «Северо-Западный государственный медицинский университет им. И.И. Мечникова»;2013;сертификат специалиста по направлению «Косметология»;Косметология||
+ЧУД ПО «Институт профессиональных технологий и сервиса ФиЗ»;2020;сертификат специалиста по специальности «Дерматовенерология»;Дерматовенерология||
+ООО «Академия Мезофарм»;2023;повышение квалификации по программе «Базовый курс медицинской трихологии»;Трихология</t>
+  </si>
+  <si>
+    <t>ГБОУ ВПО «Воронежская государственная медицинская академия имени Н.Н. Бурденко»;2010;Базовое образование;Лечебное дело||
+ГБОУ ВПО «Воронежская государственная медицинская академия имени Н.Н. Бурденко»;2011;сертификат специалиста по специальности «Дерматовенерология»;Дерматовенерология||
+Российский университет дружбы народов;2013;диплом о профессиональной подготовке;Косметология||
+ГБОУ ВПО «Воронежская государственная медицинский университет имени Н.Н. Бурденко»;2016;сертификат специалиста по специальности «Дерматовенерология»;Дерматовенерология||
+ГБОУ ВПО «Воронежская государственная медицинский университет имени Н.Н. Бурденко»;2016;повышение квалификации по программе «Дерматовенерология»;Дерматовенерология||
+ЧОУ ДПО «Региональная академия делового образования»;2020;повышение квалификации по программе «Дерматовенерология»;Дерматовенерология||
+ООО «ИПК ДПО «Специалист»;2023;повышение квалификации по программе «Косметология»;Косметология</t>
+  </si>
+  <si>
+    <t>ФГБОУ ДПО «Институт повышения квалификации Федерального медико-биологического агентства»;2017;профессиональная переподготовка по программе «Косметология»;Косметология||
+ФГБОУ ВО «ВГМУ имени Н.Н. Бурденко»;2017;интернатура по специальности «Дерматовенералогия»;Дерматовенералогия||
+ООО «Центр врачебной косметологии и пластической хирургии»;2020;сертификат специалиста по специальности «Косметология»;Косметология||
+ООО «Центр врачебной косметологии и пластической хирургии»;2020;удостоверение о повышении квалификации по программе «Инъекционные методы в косметологии»;Косметология||
+ФГБОУ ВО «Приволжский исследовательский медицинский университет»;2021;удостоверение о повышении квалификации по программе «Актуальные вопросы дерматовенерологии»;дерматовенерология</t>
+  </si>
+  <si>
+    <t>ГБОУ ВПО «Воронежский государственный медицинский университет имени Н.Н. Бурденко»;2020;Базовое образование;лечебное дело||
+ГБОУ ВПО «Воронежский государственный медицинский университет имени Н.Н. Бурденко»;2022;ординатура;Дерматовенерология||
+АНОО ДПО «Институт профессиональных технологий и сервиса «ФиЗ»;2022;диплом о переподготовке;Косметология||
+ГБОУ ВПО «Воронежский государственный медицинский университет имени Н.Н. Бурденко»;2022;свидетельство об аккредитации специалиста;Косметология</t>
+  </si>
+  <si>
+    <t>ВООЗ «Воронежское медицинское училище»;1986;Базовое образование;Медицинская сестра||
+ГБОУ ВПО «Воронежская государственная медицинская академия имени Н.Н. Бурденко»;2005;менеджер по специальности «Сестринское дело»;Сестринское дело||
+ГУЗ «Воронежская областная клиническая больница №1»;2010;курс повышения квалификации по циклу «Медицинский массаж»;Медицинский массаж||
+ГБОУ СПО ВО «Воронежский базовый медицинский колледж»;2015;сертификат специалиста по специальности «Медицинский массаж»;Медицинский массаж||
+ЧУД ПО «Институт профессиональных технологий и сервиса ФиЗ»;2020;сертификат специалиста по специальности «Медицинский массаж»;Медицинский массаж||
+ЧУД ПО «Институт профессиональных технологий и сервиса ФиЗ»;2020;сертификат специалиста по специальности «Сестринское дело в косметологии»;Сестринское дело в косметологии</t>
   </si>
 </sst>
 </file>
@@ -310,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -321,7 +412,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -605,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -661,7 +758,7 @@
       <c r="D3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -673,7 +770,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -699,6 +796,12 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1069572467</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -720,11 +823,8 @@
     </row>
     <row r="22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -732,14 +832,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="10" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
     <col min="11" max="11" width="21.28515625" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" customWidth="1"/>
@@ -747,7 +852,7 @@
     <col min="15" max="15" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +899,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -815,6 +920,9 @@
       </c>
       <c r="H2">
         <v>20</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="K2" t="s">
         <v>64</v>
@@ -854,6 +962,9 @@
       <c r="H3">
         <v>18</v>
       </c>
+      <c r="J3" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="K3" t="s">
         <v>64</v>
       </c>
@@ -892,6 +1003,9 @@
       <c r="H4">
         <v>23</v>
       </c>
+      <c r="J4" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="K4" t="s">
         <v>64</v>
       </c>
@@ -930,6 +1044,9 @@
       <c r="H5">
         <v>12</v>
       </c>
+      <c r="J5" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="K5" t="s">
         <v>64</v>
       </c>
@@ -968,6 +1085,9 @@
       <c r="H6">
         <v>19</v>
       </c>
+      <c r="J6" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="K6" t="s">
         <v>64</v>
       </c>
@@ -1006,6 +1126,9 @@
       <c r="H7">
         <v>15</v>
       </c>
+      <c r="J7" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="K7" t="s">
         <v>64</v>
       </c>
@@ -1044,6 +1167,9 @@
       <c r="H8">
         <v>8</v>
       </c>
+      <c r="J8" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="K8" t="s">
         <v>64</v>
       </c>
@@ -1082,6 +1208,9 @@
       <c r="H9">
         <v>4</v>
       </c>
+      <c r="J9" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="K9" t="s">
         <v>64</v>
       </c>
@@ -1120,6 +1249,9 @@
       <c r="H10">
         <v>39</v>
       </c>
+      <c r="J10" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="K10" t="s">
         <v>64</v>
       </c>
@@ -1214,5 +1346,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/nodejs/feedBuilder/data.xlsx
+++ b/nodejs/feedBuilder/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="89">
   <si>
     <t>name</t>
   </si>
@@ -333,6 +333,24 @@
 ГБОУ СПО ВО «Воронежский базовый медицинский колледж»;2015;сертификат специалиста по специальности «Медицинский массаж»;Медицинский массаж||
 ЧУД ПО «Институт профессиональных технологий и сервиса ФиЗ»;2020;сертификат специалиста по специальности «Медицинский массаж»;Медицинский массаж||
 ЧУД ПО «Институт профессиональных технологий и сервиса ФиЗ»;2020;сертификат специалиста по специальности «Сестринское дело в косметологии»;Сестринское дело в косметологии</t>
+  </si>
+  <si>
+    <t>Республиканский медицинский колледж по подготовке и переподготовке средних медицинских и фармацевтических работников;2009;Базовое образование;Сестринское дело, медицинская сестра общей практики||
+ НОУ «Казахстанско-Российский Медицинский Университет»;2014;Курсы переподготовки;Дерматовенерология||
+ООО «Международный институт сертифицированного образования и повышения квалификации»;2021;профессиональная переподготовка по программе «Косметические услуги в сфере эстетики и массажа», специалист в области прикладной эстетики;Косметология</t>
+  </si>
+  <si>
+    <t>ГБПОУ «Медицинский колледж министерства здравоохранения и демографической политики «Магаданской области»;2022;Базовое образование;Медицинская сестра||
+АНОО ДПО «Институт «ФИЗ»;2023;аккредитация по специальности «Медицинский массаж»</t>
+  </si>
+  <si>
+    <t>адрес клиники</t>
+  </si>
+  <si>
+    <t>ул. Московский проспект 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -830,10 +848,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +859,7 @@
     <col min="1" max="1" width="35.28515625" customWidth="1"/>
     <col min="2" max="2" width="47.28515625" customWidth="1"/>
     <col min="3" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="9" width="11.140625" customWidth="1"/>
     <col min="10" max="10" width="25.7109375" customWidth="1"/>
@@ -850,9 +868,10 @@
     <col min="13" max="13" width="13.28515625" customWidth="1"/>
     <col min="14" max="14" width="15.5703125" customWidth="1"/>
     <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,8 +917,11 @@
       <c r="O1" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -939,8 +961,14 @@
       <c r="O2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -980,8 +1008,14 @@
       <c r="O3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1021,8 +1055,14 @@
       <c r="O4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1062,8 +1102,14 @@
       <c r="O5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1103,8 +1149,14 @@
       <c r="O6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1144,8 +1196,14 @@
       <c r="O7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1185,8 +1243,14 @@
       <c r="O8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1226,8 +1290,14 @@
       <c r="O9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1267,8 +1337,14 @@
       <c r="O10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1290,6 +1366,9 @@
       <c r="H11">
         <v>16</v>
       </c>
+      <c r="J11" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="K11" t="s">
         <v>64</v>
       </c>
@@ -1305,8 +1384,14 @@
       <c r="O11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1328,6 +1413,9 @@
       <c r="H12">
         <v>2</v>
       </c>
+      <c r="J12" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="K12" t="s">
         <v>64</v>
       </c>
@@ -1342,6 +1430,12 @@
       </c>
       <c r="O12" t="s">
         <v>71</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/nodejs/feedBuilder/data.xlsx
+++ b/nodejs/feedBuilder/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="shop" sheetId="1" r:id="rId1"/>
@@ -187,9 +187,6 @@
     <t>https://erabeauty.ru/</t>
   </si>
   <si>
-    <t>https://erabeauty.ru/wp-content/uploads/2021/03/logo.png</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -351,6 +348,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://erabeauty.ru/wp-content/uploads/2025/03/era-logo.svg</t>
   </si>
 </sst>
 </file>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -751,16 +751,16 @@
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -771,21 +771,21 @@
         <v>53</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
         <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -796,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -807,7 +807,7 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -815,7 +815,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6">
         <v>1069572467</v>
@@ -850,7 +850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -903,22 +903,22 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -944,28 +944,28 @@
         <v>20</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" t="s">
         <v>67</v>
       </c>
-      <c r="M2" t="s">
-        <v>68</v>
-      </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" t="s">
         <v>87</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -991,28 +991,28 @@
         <v>18</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" t="s">
         <v>67</v>
       </c>
-      <c r="M3" t="s">
-        <v>68</v>
-      </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" t="s">
         <v>87</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -1038,28 +1038,28 @@
         <v>23</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="s">
         <v>67</v>
       </c>
-      <c r="M4" t="s">
-        <v>68</v>
-      </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" t="s">
         <v>87</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -1085,28 +1085,28 @@
         <v>12</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" t="s">
         <v>67</v>
       </c>
-      <c r="M5" t="s">
-        <v>68</v>
-      </c>
       <c r="N5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" t="s">
         <v>87</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
         <v>35</v>
@@ -1132,28 +1132,28 @@
         <v>19</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" t="s">
         <v>67</v>
       </c>
-      <c r="M6" t="s">
-        <v>68</v>
-      </c>
       <c r="N6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" t="s">
         <v>87</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>
@@ -1179,28 +1179,28 @@
         <v>15</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" t="s">
         <v>67</v>
       </c>
-      <c r="M7" t="s">
-        <v>68</v>
-      </c>
       <c r="N7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -1226,28 +1226,28 @@
         <v>8</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" t="s">
         <v>67</v>
       </c>
-      <c r="M8" t="s">
-        <v>68</v>
-      </c>
       <c r="N8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q8" t="s">
         <v>87</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
         <v>38</v>
@@ -1273,28 +1273,28 @@
         <v>4</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" t="s">
         <v>67</v>
       </c>
-      <c r="M9" t="s">
-        <v>68</v>
-      </c>
       <c r="N9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q9" t="s">
         <v>87</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
         <v>39</v>
@@ -1320,28 +1320,28 @@
         <v>39</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" t="s">
         <v>67</v>
       </c>
-      <c r="M10" t="s">
-        <v>68</v>
-      </c>
       <c r="N10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q10" t="s">
         <v>87</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
@@ -1367,28 +1367,28 @@
         <v>16</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" t="s">
         <v>67</v>
       </c>
-      <c r="M11" t="s">
-        <v>68</v>
-      </c>
       <c r="N11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" t="s">
         <v>87</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
         <v>41</v>
@@ -1414,28 +1414,28 @@
         <v>2</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" t="s">
         <v>67</v>
       </c>
-      <c r="M12" t="s">
-        <v>68</v>
-      </c>
       <c r="N12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q12" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/nodejs/feedBuilder/data.xlsx
+++ b/nodejs/feedBuilder/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="shop" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="109">
   <si>
     <t>name</t>
   </si>
@@ -351,6 +351,76 @@
   </si>
   <si>
     <t>https://erabeauty.ru/wp-content/uploads/2025/03/era-logo.svg</t>
+  </si>
+  <si>
+    <t>https://erabeauty.ru/team/opanashchuk_marina_nikolaevna/</t>
+  </si>
+  <si>
+    <t>Опанащук Марина Николаевна</t>
+  </si>
+  <si>
+    <t>Врач-дерматовенеролог, врач-косметолог</t>
+  </si>
+  <si>
+    <t>https://erabeauty.ru/wp-content/uploads/2025/04/photo_2025-04-17_14-40-57-768x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://erabeauty.ru/team/chernyshova_mariya_mihajlovna/</t>
+  </si>
+  <si>
+    <t>Чернышова Мария Михайловна</t>
+  </si>
+  <si>
+    <t>https://erabeauty.ru/wp-content/uploads/2025/04/photo_2025-04-17_14-41-00-768x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://erabeauty.ru/team/serikova_tatyana_leonidovna/</t>
+  </si>
+  <si>
+    <t>Серикова Татьяна Леонидовна</t>
+  </si>
+  <si>
+    <t>Медицинская сестра по косметологии, косметолог-эстетист, косметолог-подолог</t>
+  </si>
+  <si>
+    <t>https://erabeauty.ru/wp-content/uploads/2025/04/серикова_татьяна-1-806x1024.jpg</t>
+  </si>
+  <si>
+    <t>9 (473) 211-20-28</t>
+  </si>
+  <si>
+    <t>10 (473) 211-20-28</t>
+  </si>
+  <si>
+    <t>11 (473) 211-20-28</t>
+  </si>
+  <si>
+    <t>ул. Московский проспект 34</t>
+  </si>
+  <si>
+    <t>ул. Московский проспект 35</t>
+  </si>
+  <si>
+    <t>ул. Московский проспект 36</t>
+  </si>
+  <si>
+    <t>ГОУ ВПО «ВГМУ им. Н.Н. Бурденко»; 2022; Базовое образование; Лечебное дело, врач||
+ФГБОУ ВО ТГУ им. Г.Р. Державина; 2024; ординатура по специальности «Дерматовенерология»; Дерматовенерология||
+ЧУД ПО «Институт профессиональных технологий и сервиса ФиЗ»; 2024; сертификат специалиста по специальности «Косметология»;Косметология</t>
+  </si>
+  <si>
+    <t>ГОУ СПО «Северодвинское медицинское училище»; 1993; Базовое образование; Медицинская сестра||
+Международный Учебный Центр «Формула красоты»; 2008; специальность «косметолог-эстетист»; ||
+компания Studex; 2010; курс по технике прокола ушей; Косметология ||
+ООО «Межрегиональный центр непрерывного медицинского и фармацевтического образования»; 2020; Сестринское дело в косметологии; Косметология ||
+ООО «Межрегиональный центр непрерывного медицинского и фармацевтического образования»; 2020; сертификат специалиста по специальности «Сестринское дело в косметологии»;Косметлогия ||
+Школа подологии «Мирада» (г. Санкт-Петербург); 2020; косметолог-подолог;Косметология</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОУ ВПО «ВГМУ им. Н.Н. Бурденко»;2021;Базовое образование;Лечебное дело, врач||
+ГОУ ВПО «ВГМУ им. Н.Н. Бурденко»;2024; ординатура по специальности «Дерматовенерология»;Дерматовенерология||
+ГОУ ВПО «ВГМУ им. Н.Н. Бурденко»;2024; сертификат специалиста по специальности «Косметология»;Косметология||
+</t>
   </si>
 </sst>
 </file>
@@ -720,20 +790,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="55.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" customWidth="1"/>
+    <col min="2" max="2" width="55.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -746,7 +816,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -763,7 +833,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -780,7 +850,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -791,7 +861,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -802,7 +872,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -813,7 +883,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -824,22 +894,22 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -848,30 +918,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" customWidth="1"/>
-    <col min="3" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" customWidth="1"/>
+    <col min="3" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="9" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" customWidth="1"/>
+    <col min="16" max="16" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,7 +991,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -968,7 +1038,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1015,7 +1085,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1062,7 +1132,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1109,7 +1179,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1156,7 +1226,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1203,7 +1273,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1250,7 +1320,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1297,7 +1367,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1344,7 +1414,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1391,7 +1461,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1436,6 +1506,138 @@
       </c>
       <c r="Q12" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O13" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15">
+        <v>15</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/nodejs/feedBuilder/data.xlsx
+++ b/nodejs/feedBuilder/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27555" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="shop" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -337,10 +337,6 @@
 ООО «Международный институт сертифицированного образования и повышения квалификации»;2021;профессиональная переподготовка по программе «Косметические услуги в сфере эстетики и массажа», специалист в области прикладной эстетики;Косметология</t>
   </si>
   <si>
-    <t>ГБПОУ «Медицинский колледж министерства здравоохранения и демографической политики «Магаданской области»;2022;Базовое образование;Медицинская сестра||
-АНОО ДПО «Институт «ФИЗ»;2023;аккредитация по специальности «Медицинский массаж»</t>
-  </si>
-  <si>
     <t>адрес клиники</t>
   </si>
   <si>
@@ -384,24 +380,6 @@
   </si>
   <si>
     <t>https://erabeauty.ru/wp-content/uploads/2025/04/серикова_татьяна-1-806x1024.jpg</t>
-  </si>
-  <si>
-    <t>9 (473) 211-20-28</t>
-  </si>
-  <si>
-    <t>10 (473) 211-20-28</t>
-  </si>
-  <si>
-    <t>11 (473) 211-20-28</t>
-  </si>
-  <si>
-    <t>ул. Московский проспект 34</t>
-  </si>
-  <si>
-    <t>ул. Московский проспект 35</t>
-  </si>
-  <si>
-    <t>ул. Московский проспект 36</t>
   </si>
   <si>
     <t>ГОУ ВПО «ВГМУ им. Н.Н. Бурденко»; 2022; Базовое образование; Лечебное дело, врач||
@@ -409,18 +387,54 @@
 ЧУД ПО «Институт профессиональных технологий и сервиса ФиЗ»; 2024; сертификат специалиста по специальности «Косметология»;Косметология</t>
   </si>
   <si>
+    <t xml:space="preserve">ГОУ ВПО «ВГМУ им. Н.Н. Бурденко»;2021;Базовое образование;Лечебное дело, врач||
+ГОУ ВПО «ВГМУ им. Н.Н. Бурденко»;2024; ординатура по специальности «Дерматовенерология»;Дерматовенерология||
+ГОУ ВПО «ВГМУ им. Н.Н. Бурденко»;2024; сертификат специалиста по специальности «Косметология»;Косметология||
+</t>
+  </si>
+  <si>
+    <t>Массажист</t>
+  </si>
+  <si>
+    <t>massagist</t>
+  </si>
+  <si>
+    <t>beauty-master</t>
+  </si>
+  <si>
+    <t>Бьюти-мастер</t>
+  </si>
+  <si>
+    <t>Иванова Ирина Алексеевна</t>
+  </si>
+  <si>
+    <t>https://erabeauty.ru/team/ivanova_irina_alekseevna/</t>
+  </si>
+  <si>
+    <t>https://erabeauty.ru/wp-content/uploads/2022/06/%D0%98%D0%B2%D0%B0%D0%BD%D0%BE%D0%B2%D0%B0-%D0%98%D1%80%D0%B8%D0%BD%D0%B0-%D0%90%D0%BB%D0%B5%D0%BA%D1%81%D0%B5%D0%B5%D0%B2%D0%BD%D0%B0-683x1024.jpg</t>
+  </si>
+  <si>
+    <t>Мастер ногтевого сервиса.</t>
+  </si>
+  <si>
+    <t>ГБПОУ «Медицинский колледж министерства здравоохранения и демографической политики «Магаданской области»;2022;Базовое образование;Медицинская сестра||
+АНОО ДПО «Институт «ФИЗ»;2023;аккредитация по специальности «Медицинский массаж»;Медицинский массаж</t>
+  </si>
+  <si>
     <t>ГОУ СПО «Северодвинское медицинское училище»; 1993; Базовое образование; Медицинская сестра||
-Международный Учебный Центр «Формула красоты»; 2008; специальность «косметолог-эстетист»; ||
+Международный Учебный Центр «Формула красоты»; 2008; Повышение квалификации;косметолог-эстетист; ||
 компания Studex; 2010; курс по технике прокола ушей; Косметология ||
 ООО «Межрегиональный центр непрерывного медицинского и фармацевтического образования»; 2020; Сестринское дело в косметологии; Косметология ||
 ООО «Межрегиональный центр непрерывного медицинского и фармацевтического образования»; 2020; сертификат специалиста по специальности «Сестринское дело в косметологии»;Косметлогия ||
 Школа подологии «Мирада» (г. Санкт-Петербург); 2020; косметолог-подолог;Косметология</t>
   </si>
   <si>
-    <t xml:space="preserve">ГОУ ВПО «ВГМУ им. Н.Н. Бурденко»;2021;Базовое образование;Лечебное дело, врач||
-ГОУ ВПО «ВГМУ им. Н.Н. Бурденко»;2024; ординатура по специальности «Дерматовенерология»;Дерматовенерология||
-ГОУ ВПО «ВГМУ им. Н.Н. Бурденко»;2024; сертификат специалиста по специальности «Косметология»;Косметология||
-</t>
+    <t>Christrio Institute of Advanced Nailery; 2013; Дополнительное образование; Специалист по ногтевому сервису||
+Международный Учебный Центр «Формула красоты»; 2008; специальность «косметолог-эстетист»;Косметолог-эстетист ||
+компания Studex; 2010; курс по технике прокола ушей; Косметология ||
+ООО «Межрегиональный центр непрерывного медицинского и фармацевтического образования»; 2020; Сестринское дело в косметологии; Косметология ||
+ООО «Межрегиональный центр непрерывного медицинского и фармацевтического образования»; 2020; сертификат специалиста по специальности «Сестринское дело в косметологии»;Косметлогия ||
+Школа подологии «Мирада» (г. Санкт-Петербург); 2020; косметолог-подолог;Косметология</t>
   </si>
 </sst>
 </file>
@@ -791,19 +805,19 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" customWidth="1"/>
-    <col min="2" max="2" width="55.109375" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="30.5546875" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -816,7 +830,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -833,7 +847,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -850,29 +864,41 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -883,7 +909,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -894,22 +920,22 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -918,30 +944,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" customWidth="1"/>
-    <col min="3" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="7" width="17.109375" customWidth="1"/>
-    <col min="8" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="11" width="21.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.5546875" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" customWidth="1"/>
-    <col min="16" max="16" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -988,10 +1014,10 @@
         <v>69</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1032,13 +1058,13 @@
         <v>70</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" t="s">
         <v>86</v>
       </c>
-      <c r="Q2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1079,13 +1105,13 @@
         <v>70</v>
       </c>
       <c r="P3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" t="s">
         <v>86</v>
       </c>
-      <c r="Q3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1126,13 +1152,13 @@
         <v>70</v>
       </c>
       <c r="P4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" t="s">
         <v>86</v>
       </c>
-      <c r="Q4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1173,13 +1199,13 @@
         <v>70</v>
       </c>
       <c r="P5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" t="s">
         <v>86</v>
       </c>
-      <c r="Q5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1220,13 +1246,13 @@
         <v>70</v>
       </c>
       <c r="P6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6" t="s">
         <v>86</v>
       </c>
-      <c r="Q6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1267,13 +1293,13 @@
         <v>70</v>
       </c>
       <c r="P7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7" t="s">
         <v>86</v>
       </c>
-      <c r="Q7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1314,13 +1340,13 @@
         <v>70</v>
       </c>
       <c r="P8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" t="s">
         <v>86</v>
       </c>
-      <c r="Q8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1361,13 +1387,13 @@
         <v>70</v>
       </c>
       <c r="P9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9" t="s">
         <v>86</v>
       </c>
-      <c r="Q9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1378,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
         <v>39</v>
@@ -1408,13 +1434,13 @@
         <v>70</v>
       </c>
       <c r="P10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" t="s">
         <v>86</v>
       </c>
-      <c r="Q10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1425,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
@@ -1455,13 +1481,13 @@
         <v>70</v>
       </c>
       <c r="P11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" t="s">
         <v>86</v>
       </c>
-      <c r="Q11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1472,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="F12" t="s">
         <v>41</v>
@@ -1484,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="K12" t="s">
         <v>63</v>
@@ -1502,18 +1528,18 @@
         <v>70</v>
       </c>
       <c r="P12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" t="s">
         <v>86</v>
       </c>
-      <c r="Q12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1522,16 +1548,16 @@
         <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s">
         <v>63</v>
@@ -1546,18 +1572,18 @@
         <v>63</v>
       </c>
       <c r="O13" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1566,16 +1592,16 @@
         <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K14" t="s">
         <v>63</v>
@@ -1590,36 +1616,36 @@
         <v>63</v>
       </c>
       <c r="O14" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H15">
         <v>15</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K15" t="s">
         <v>63</v>
@@ -1634,10 +1660,54 @@
         <v>63</v>
       </c>
       <c r="O15" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="P15" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" t="s">
+        <v>67</v>
+      </c>
+      <c r="N16" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/nodejs/feedBuilder/data.xlsx
+++ b/nodejs/feedBuilder/data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="shop" sheetId="1" r:id="rId1"/>
     <sheet name="offers" sheetId="2" r:id="rId2"/>
+    <sheet name="проблемные" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="107">
   <si>
     <t>name</t>
   </si>
@@ -361,15 +362,6 @@
     <t>https://erabeauty.ru/wp-content/uploads/2025/04/photo_2025-04-17_14-40-57-768x1024.jpg</t>
   </si>
   <si>
-    <t>https://erabeauty.ru/team/chernyshova_mariya_mihajlovna/</t>
-  </si>
-  <si>
-    <t>Чернышова Мария Михайловна</t>
-  </si>
-  <si>
-    <t>https://erabeauty.ru/wp-content/uploads/2025/04/photo_2025-04-17_14-41-00-768x1024.jpg</t>
-  </si>
-  <si>
     <t>https://erabeauty.ru/team/serikova_tatyana_leonidovna/</t>
   </si>
   <si>
@@ -380,11 +372,6 @@
   </si>
   <si>
     <t>https://erabeauty.ru/wp-content/uploads/2025/04/серикова_татьяна-1-806x1024.jpg</t>
-  </si>
-  <si>
-    <t>ГОУ ВПО «ВГМУ им. Н.Н. Бурденко»; 2022; Базовое образование; Лечебное дело, врач||
-ФГБОУ ВО ТГУ им. Г.Р. Державина; 2024; ординатура по специальности «Дерматовенерология»; Дерматовенерология||
-ЧУД ПО «Институт профессиональных технологий и сервиса ФиЗ»; 2024; сертификат специалиста по специальности «Косметология»;Косметология</t>
   </si>
   <si>
     <t xml:space="preserve">ГОУ ВПО «ВГМУ им. Н.Н. Бурденко»;2021;Базовое образование;Лечебное дело, врач||
@@ -400,9 +387,6 @@
   </si>
   <si>
     <t>beauty-master</t>
-  </si>
-  <si>
-    <t>Бьюти-мастер</t>
   </si>
   <si>
     <t>Иванова Ирина Алексеевна</t>
@@ -805,7 +789,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C5" sqref="C5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,10 +856,10 @@
         <v>55</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>61</v>
@@ -888,15 +872,9 @@
       <c r="B5" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -944,10 +922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
         <v>39</v>
@@ -1442,28 +1420,28 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s">
         <v>63</v>
@@ -1483,34 +1461,31 @@
       <c r="P11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="K12" t="s">
         <v>63</v>
@@ -1532,186 +1507,160 @@
       </c>
       <c r="Q12" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" t="s">
-        <v>67</v>
-      </c>
-      <c r="N13" t="s">
-        <v>63</v>
-      </c>
-      <c r="O13" t="s">
-        <v>70</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K14" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" t="s">
-        <v>67</v>
-      </c>
-      <c r="N14" t="s">
-        <v>63</v>
-      </c>
-      <c r="O14" t="s">
-        <v>70</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15">
-        <v>15</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="K15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L15" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" t="s">
-        <v>67</v>
-      </c>
-      <c r="N15" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" t="s">
-        <v>70</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16">
-        <v>15</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="K16" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N16" t="s">
-        <v>63</v>
-      </c>
-      <c r="O16" t="s">
-        <v>70</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1">
+        <v>16</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/nodejs/feedBuilder/data.xlsx
+++ b/nodejs/feedBuilder/data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="111">
   <si>
     <t>name</t>
   </si>
@@ -419,6 +419,23 @@
 ООО «Межрегиональный центр непрерывного медицинского и фармацевтического образования»; 2020; Сестринское дело в косметологии; Косметология ||
 ООО «Межрегиональный центр непрерывного медицинского и фармацевтического образования»; 2020; сертификат специалиста по специальности «Сестринское дело в косметологии»;Косметлогия ||
 Школа подологии «Мирада» (г. Санкт-Петербург); 2020; косметолог-подолог;Косметология</t>
+  </si>
+  <si>
+    <t>Пономарева Анастасия Сергеевна</t>
+  </si>
+  <si>
+    <t>https://erabeauty.ru/team/ponomareva-anastasiya-sergeevna/</t>
+  </si>
+  <si>
+    <t>https://erabeauty.ru/wp-content/uploads/2025/10/%D0%BF%D0%BE%D0%BD%D0%BE%D0%BC%D0%B0%D1%80%D0%B5%D0%B2%D0%B0_%D0%B0%D0%BD%D0%B0%D1%81%D1%82%D0%B0%D1%81%D0%B8%D1%8F-768x976.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БПОУ ВО «Борисоглебский медицинский колледж»;2023;Базовое образование;Медицинская сестра||
+АНО ОДПО «Институт профессиональных технологий и сервиса «ФиЗ»;2025;Повышение квалификации;Медицинский массаж в педиатрии||
+АНО ОДПО «Институт профессиональных технологий и сервиса «ФиЗ»;2025;Повышение квалификации;Антицеллюлитная программа||
+АНО ОДПО «Институт профессиональных технологий и сервиса «ФиЗ»;2025;Повышение квалификации;Медицинский массаж||
+АНО ОДПО «Институт профессиональных технологий и сервиса «ФиЗ»;2025;Повышение квалификации;Профессиональные рецептуры и массажные техники||
+</t>
   </si>
 </sst>
 </file>
@@ -922,10 +939,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,6 +1526,50 @@
         <v>86</v>
       </c>
     </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
